--- a/BD y Archivos importados/AlumnosGenerados2.xlsx
+++ b/BD y Archivos importados/AlumnosGenerados2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\ProyectoCalidad\BD y Archivos importados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D00CCA9-620A-4412-83BE-DDBAB7DBECDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA762DDD-2603-4E7A-AD62-12259E65659A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{98C72760-3829-47D4-B2A7-ED045B9BBA0B}"/>
   </bookViews>
@@ -850,7 +850,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>9582</v>
+        <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -908,8 +908,8 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>8227</v>
+      <c r="B3" s="2">
+        <v>123456</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -931,8 +931,8 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>5872</v>
+      <c r="B4" s="2">
+        <v>123456</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -954,8 +954,8 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
-        <v>7883</v>
+      <c r="B5" s="2">
+        <v>123456</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -977,8 +977,8 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
-        <v>5230</v>
+      <c r="B6" s="2">
+        <v>123456</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1000,8 +1000,8 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
-        <v>3378</v>
+      <c r="B7" s="2">
+        <v>123456</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -1023,8 +1023,8 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1">
-        <v>3358</v>
+      <c r="B8" s="2">
+        <v>123456</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
@@ -1046,8 +1046,8 @@
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1">
-        <v>1253</v>
+      <c r="B9" s="2">
+        <v>123456</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
@@ -1069,8 +1069,8 @@
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1">
-        <v>3881</v>
+      <c r="B10" s="2">
+        <v>123456</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1092,8 +1092,8 @@
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1">
-        <v>6542</v>
+      <c r="B11" s="2">
+        <v>123456</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
@@ -1115,8 +1115,8 @@
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="1">
-        <v>8946</v>
+      <c r="B12" s="2">
+        <v>123456</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
@@ -1138,8 +1138,8 @@
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1">
-        <v>7905</v>
+      <c r="B13" s="2">
+        <v>123456</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -1161,8 +1161,8 @@
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1">
-        <v>8006</v>
+      <c r="B14" s="2">
+        <v>123456</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>49</v>
@@ -1184,8 +1184,8 @@
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1">
-        <v>8830</v>
+      <c r="B15" s="2">
+        <v>123456</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>53</v>
@@ -1207,8 +1207,8 @@
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1">
-        <v>6058</v>
+      <c r="B16" s="2">
+        <v>123456</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>57</v>
@@ -1230,8 +1230,8 @@
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1">
-        <v>9801</v>
+      <c r="B17" s="2">
+        <v>123456</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>61</v>
@@ -1253,8 +1253,8 @@
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1">
-        <v>8681</v>
+      <c r="B18" s="2">
+        <v>123456</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>65</v>
@@ -1276,8 +1276,8 @@
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="1">
-        <v>4006</v>
+      <c r="B19" s="2">
+        <v>123456</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>69</v>
@@ -1299,8 +1299,8 @@
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="1">
-        <v>8065</v>
+      <c r="B20" s="2">
+        <v>123456</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>73</v>
@@ -1322,8 +1322,8 @@
       <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="1">
-        <v>9019</v>
+      <c r="B21" s="2">
+        <v>123456</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>77</v>
@@ -1345,8 +1345,8 @@
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="1">
-        <v>6184</v>
+      <c r="B22" s="2">
+        <v>123456</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>81</v>
@@ -1368,8 +1368,8 @@
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="1">
-        <v>2664</v>
+      <c r="B23" s="2">
+        <v>123456</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>85</v>
@@ -1391,8 +1391,8 @@
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="1">
-        <v>2538</v>
+      <c r="B24" s="2">
+        <v>123456</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>89</v>
@@ -1414,8 +1414,8 @@
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="1">
-        <v>6019</v>
+      <c r="B25" s="2">
+        <v>123456</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>93</v>
@@ -1437,8 +1437,8 @@
       <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="1">
-        <v>6599</v>
+      <c r="B26" s="2">
+        <v>123456</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>97</v>
@@ -1460,8 +1460,8 @@
       <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="1">
-        <v>4245</v>
+      <c r="B27" s="2">
+        <v>123456</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>101</v>
@@ -1483,8 +1483,8 @@
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="1">
-        <v>3408</v>
+      <c r="B28" s="2">
+        <v>123456</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>105</v>
@@ -1506,8 +1506,8 @@
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="1">
-        <v>6431</v>
+      <c r="B29" s="2">
+        <v>123456</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>109</v>
@@ -1529,8 +1529,8 @@
       <c r="A30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="1">
-        <v>4540</v>
+      <c r="B30" s="2">
+        <v>123456</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>113</v>
@@ -1552,8 +1552,8 @@
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="1">
-        <v>2371</v>
+      <c r="B31" s="2">
+        <v>123456</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>117</v>
@@ -1575,8 +1575,8 @@
       <c r="A32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="1">
-        <v>2885</v>
+      <c r="B32" s="2">
+        <v>123456</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>120</v>
@@ -1598,8 +1598,8 @@
       <c r="A33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="1">
-        <v>5784</v>
+      <c r="B33" s="2">
+        <v>123456</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>124</v>
@@ -1621,8 +1621,8 @@
       <c r="A34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="1">
-        <v>6262</v>
+      <c r="B34" s="2">
+        <v>123456</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>128</v>
@@ -1644,8 +1644,8 @@
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="1">
-        <v>7829</v>
+      <c r="B35" s="2">
+        <v>123456</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>132</v>
@@ -1667,8 +1667,8 @@
       <c r="A36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="1">
-        <v>4353</v>
+      <c r="B36" s="2">
+        <v>123456</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>136</v>
@@ -1690,8 +1690,8 @@
       <c r="A37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="1">
-        <v>7036</v>
+      <c r="B37" s="2">
+        <v>123456</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>140</v>
@@ -1713,8 +1713,8 @@
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="1">
-        <v>7226</v>
+      <c r="B38" s="2">
+        <v>123456</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>144</v>
